--- a/data/excel/Approvalworkflow.xlsx
+++ b/data/excel/Approvalworkflow.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BEF92B-2AAF-48F5-BDFC-BA21CBEFADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
   <si>
     <t>Source</t>
   </si>
@@ -133,12 +133,54 @@
   </si>
   <si>
     <t>sbt</t>
+  </si>
+  <si>
+    <t>//staging117/sbt</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Prince@1234</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>SelectQty</t>
+  </si>
+  <si>
+    <t>SelectFromList</t>
+  </si>
+  <si>
+    <t>Mahindra And Mahindra</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Prince Chaurasia ( prince.chaurasia@quadlabs.com ) </t>
+  </si>
+  <si>
+    <t>anant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Anant Maurya ( anant.Kumar@Quadlabs.com ) </t>
+  </si>
+  <si>
+    <t>ApprovalFlow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -231,6 +279,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,11 +563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,4 +819,182 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="46.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"QLABS12345,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>"Parallel,Sequential"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>